--- a/pred_ohlcv/54/2019-10-15 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-15 LOOM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H354"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C2" t="n">
         <v>28.8</v>
@@ -417,15 +422,18 @@
         <v>28.8</v>
       </c>
       <c r="E2" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F2" t="n">
-        <v>28074.4666</v>
+        <v>7.172</v>
       </c>
       <c r="G2" t="n">
-        <v>28.71166666666669</v>
+        <v>28.70500000000003</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C3" t="n">
         <v>28.8</v>
       </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E3" t="n">
         <v>28.7</v>
       </c>
       <c r="F3" t="n">
-        <v>166395.5408</v>
+        <v>28074.4666</v>
       </c>
       <c r="G3" t="n">
-        <v>28.72166666666669</v>
+        <v>28.71166666666669</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C4" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F4" t="n">
-        <v>30202.9281</v>
+        <v>166395.5408</v>
       </c>
       <c r="G4" t="n">
-        <v>28.72833333333336</v>
+        <v>28.72166666666669</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D5" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F5" t="n">
-        <v>7164.1043</v>
+        <v>30202.9281</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73666666666669</v>
+        <v>28.72833333333336</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2000</v>
+        <v>7164.1043</v>
       </c>
       <c r="G6" t="n">
-        <v>28.74500000000002</v>
+        <v>28.73666666666669</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -547,15 +567,18 @@
         <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>122822.5828</v>
+        <v>2000</v>
       </c>
       <c r="G7" t="n">
-        <v>28.75333333333336</v>
+        <v>28.74500000000002</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F8" t="n">
-        <v>33220.252</v>
+        <v>122822.5828</v>
       </c>
       <c r="G8" t="n">
-        <v>28.76166666666669</v>
+        <v>28.75333333333336</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>29.1</v>
       </c>
       <c r="C9" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D9" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E9" t="n">
         <v>29.1</v>
       </c>
       <c r="F9" t="n">
-        <v>45752.7121</v>
+        <v>33220.252</v>
       </c>
       <c r="G9" t="n">
-        <v>28.77166666666669</v>
+        <v>28.76166666666669</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C10" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D10" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E10" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F10" t="n">
-        <v>4398</v>
+        <v>45752.7121</v>
       </c>
       <c r="G10" t="n">
-        <v>28.78333333333336</v>
+        <v>28.77166666666669</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>29.2</v>
       </c>
       <c r="F11" t="n">
-        <v>36555.7117</v>
+        <v>4398</v>
       </c>
       <c r="G11" t="n">
-        <v>28.79333333333336</v>
+        <v>28.78333333333336</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>29.2</v>
       </c>
       <c r="C12" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D12" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E12" t="n">
         <v>29.2</v>
       </c>
       <c r="F12" t="n">
-        <v>14532.2275</v>
+        <v>36555.7117</v>
       </c>
       <c r="G12" t="n">
-        <v>28.80166666666669</v>
+        <v>28.79333333333336</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>29.2</v>
       </c>
       <c r="F13" t="n">
-        <v>51958.8844</v>
+        <v>14532.2275</v>
       </c>
       <c r="G13" t="n">
-        <v>28.81166666666669</v>
+        <v>28.80166666666669</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C14" t="n">
         <v>29.2</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E14" t="n">
         <v>29.2</v>
       </c>
       <c r="F14" t="n">
-        <v>15578.0579</v>
+        <v>51958.8844</v>
       </c>
       <c r="G14" t="n">
-        <v>28.82000000000003</v>
+        <v>28.81166666666669</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C15" t="n">
         <v>29.2</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E15" t="n">
         <v>29.2</v>
       </c>
       <c r="F15" t="n">
-        <v>741.0702</v>
+        <v>15578.0579</v>
       </c>
       <c r="G15" t="n">
-        <v>28.82833333333336</v>
+        <v>28.82000000000003</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C16" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="D16" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E16" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>741.0702</v>
       </c>
       <c r="G16" t="n">
-        <v>28.84500000000003</v>
+        <v>28.82833333333336</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C17" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D17" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E17" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F17" t="n">
-        <v>10876.1739</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>28.85333333333336</v>
+        <v>28.84500000000003</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C18" t="n">
         <v>29.2</v>
       </c>
       <c r="D18" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E18" t="n">
         <v>29.2</v>
       </c>
       <c r="F18" t="n">
-        <v>35872.7496</v>
+        <v>10876.1739</v>
       </c>
       <c r="G18" t="n">
-        <v>28.86500000000003</v>
+        <v>28.85333333333336</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C19" t="n">
         <v>29.2</v>
       </c>
       <c r="D19" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E19" t="n">
         <v>29.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1652.0063</v>
+        <v>35872.7496</v>
       </c>
       <c r="G19" t="n">
-        <v>28.88000000000003</v>
+        <v>28.86500000000003</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>29.2</v>
       </c>
       <c r="F20" t="n">
-        <v>31568.2457</v>
+        <v>1652.0063</v>
       </c>
       <c r="G20" t="n">
-        <v>28.8916666666667</v>
+        <v>28.88000000000003</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D21" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F21" t="n">
-        <v>53913.4477</v>
+        <v>31568.2457</v>
       </c>
       <c r="G21" t="n">
-        <v>28.90333333333336</v>
+        <v>28.8916666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C22" t="n">
         <v>29.3</v>
       </c>
       <c r="D22" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E22" t="n">
         <v>29.3</v>
       </c>
       <c r="F22" t="n">
-        <v>23564.0273</v>
+        <v>53913.4477</v>
       </c>
       <c r="G22" t="n">
-        <v>28.91833333333336</v>
+        <v>28.90333333333336</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>29.3</v>
       </c>
       <c r="F23" t="n">
-        <v>18892.5333</v>
+        <v>23564.0273</v>
       </c>
       <c r="G23" t="n">
-        <v>28.93166666666669</v>
+        <v>28.91833333333336</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="D24" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="E24" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F24" t="n">
-        <v>101772.653</v>
+        <v>18892.5333</v>
       </c>
       <c r="G24" t="n">
-        <v>28.9466666666667</v>
+        <v>28.93166666666669</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>29.4</v>
       </c>
       <c r="C25" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D25" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E25" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F25" t="n">
-        <v>43354.3876</v>
+        <v>101772.653</v>
       </c>
       <c r="G25" t="n">
-        <v>28.95833333333336</v>
+        <v>28.9466666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C26" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="D26" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E26" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F26" t="n">
-        <v>538.6348</v>
+        <v>43354.3876</v>
       </c>
       <c r="G26" t="n">
-        <v>28.9716666666667</v>
+        <v>28.95833333333336</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C27" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D27" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E27" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2308.6054</v>
+        <v>538.6348</v>
       </c>
       <c r="G27" t="n">
-        <v>28.98333333333336</v>
+        <v>28.9716666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>29.4</v>
       </c>
       <c r="F28" t="n">
-        <v>14479.89795918367</v>
+        <v>2308.6054</v>
       </c>
       <c r="G28" t="n">
-        <v>28.9966666666667</v>
+        <v>28.98333333333336</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C29" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D29" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E29" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F29" t="n">
-        <v>11200</v>
+        <v>14479.89795918367</v>
       </c>
       <c r="G29" t="n">
-        <v>29.00333333333337</v>
+        <v>28.9966666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D30" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="E30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F30" t="n">
-        <v>1312</v>
+        <v>11200</v>
       </c>
       <c r="G30" t="n">
-        <v>29.01000000000003</v>
+        <v>29.00333333333337</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C31" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="D31" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E31" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F31" t="n">
-        <v>28427.3071</v>
+        <v>1312</v>
       </c>
       <c r="G31" t="n">
-        <v>29.02000000000003</v>
+        <v>29.01000000000003</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C32" t="n">
         <v>29.5</v>
@@ -1197,15 +1292,18 @@
         <v>29.5</v>
       </c>
       <c r="E32" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F32" t="n">
-        <v>1270</v>
+        <v>28427.3071</v>
       </c>
       <c r="G32" t="n">
-        <v>29.03000000000003</v>
+        <v>29.02000000000003</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>29.4</v>
       </c>
       <c r="C33" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D33" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E33" t="n">
         <v>29.4</v>
       </c>
       <c r="F33" t="n">
-        <v>3879.4246</v>
+        <v>1270</v>
       </c>
       <c r="G33" t="n">
-        <v>29.03833333333336</v>
+        <v>29.03000000000003</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>29.4</v>
       </c>
       <c r="F34" t="n">
-        <v>6103.9767</v>
+        <v>3879.4246</v>
       </c>
       <c r="G34" t="n">
-        <v>29.04833333333336</v>
+        <v>29.03833333333336</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="C35" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D35" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E35" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>6103.9767</v>
       </c>
       <c r="G35" t="n">
-        <v>29.05333333333336</v>
+        <v>29.04833333333336</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C36" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D36" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E36" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F36" t="n">
-        <v>34095.5631</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>29.06000000000003</v>
+        <v>29.05333333333336</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>29.3</v>
       </c>
       <c r="F37" t="n">
-        <v>1361.6949</v>
+        <v>34095.5631</v>
       </c>
       <c r="G37" t="n">
-        <v>29.06666666666669</v>
+        <v>29.06000000000003</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>29.3</v>
       </c>
       <c r="F38" t="n">
-        <v>7097.6054</v>
+        <v>1361.6949</v>
       </c>
       <c r="G38" t="n">
-        <v>29.07833333333336</v>
+        <v>29.06666666666669</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E39" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F39" t="n">
-        <v>18351.3802</v>
+        <v>7097.6054</v>
       </c>
       <c r="G39" t="n">
-        <v>29.08333333333336</v>
+        <v>29.07833333333336</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>29.2</v>
       </c>
       <c r="F40" t="n">
-        <v>103266.1931</v>
+        <v>18351.3802</v>
       </c>
       <c r="G40" t="n">
-        <v>29.08833333333336</v>
+        <v>29.08333333333336</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>29.2</v>
       </c>
       <c r="F41" t="n">
-        <v>37464.9315</v>
+        <v>103266.1931</v>
       </c>
       <c r="G41" t="n">
-        <v>29.09333333333336</v>
+        <v>29.08833333333336</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>29.2</v>
       </c>
       <c r="C42" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D42" t="n">
         <v>29.2</v>
       </c>
       <c r="E42" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F42" t="n">
-        <v>73222.9167</v>
+        <v>37464.9315</v>
       </c>
       <c r="G42" t="n">
-        <v>29.10000000000002</v>
+        <v>29.09333333333336</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C43" t="n">
         <v>29.1</v>
       </c>
       <c r="D43" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E43" t="n">
         <v>29.1</v>
       </c>
       <c r="F43" t="n">
-        <v>6263.6483</v>
+        <v>73222.9167</v>
       </c>
       <c r="G43" t="n">
-        <v>29.10333333333335</v>
+        <v>29.10000000000002</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C44" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D44" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E44" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F44" t="n">
-        <v>7311</v>
+        <v>6263.6483</v>
       </c>
       <c r="G44" t="n">
-        <v>29.10166666666669</v>
+        <v>29.10333333333335</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="C45" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D45" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E45" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F45" t="n">
-        <v>41854.386</v>
+        <v>7311</v>
       </c>
       <c r="G45" t="n">
-        <v>29.09666666666669</v>
+        <v>29.10166666666669</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C46" t="n">
         <v>28.7</v>
       </c>
       <c r="D46" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E46" t="n">
         <v>28.7</v>
       </c>
       <c r="F46" t="n">
-        <v>100000</v>
+        <v>41854.386</v>
       </c>
       <c r="G46" t="n">
-        <v>29.09500000000002</v>
+        <v>29.09666666666669</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C47" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D47" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E47" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F47" t="n">
         <v>100000</v>
       </c>
       <c r="G47" t="n">
-        <v>29.09333333333336</v>
+        <v>29.09500000000002</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C48" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D48" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E48" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G48" t="n">
-        <v>29.09666666666669</v>
+        <v>29.09333333333336</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>28.9</v>
       </c>
       <c r="F49" t="n">
-        <v>4105.5363</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>29.10000000000002</v>
+        <v>29.09666666666669</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C50" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D50" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E50" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F50" t="n">
-        <v>781.1477</v>
+        <v>4105.5363</v>
       </c>
       <c r="G50" t="n">
-        <v>29.09666666666669</v>
+        <v>29.10000000000002</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>28.7</v>
       </c>
       <c r="F51" t="n">
-        <v>1466.0278</v>
+        <v>781.1477</v>
       </c>
       <c r="G51" t="n">
         <v>29.09666666666669</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>28.7</v>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>1466.0278</v>
       </c>
       <c r="G52" t="n">
-        <v>29.09500000000002</v>
+        <v>29.09666666666669</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C53" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D53" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E53" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F53" t="n">
-        <v>53701.4307</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="n">
-        <v>29.09000000000002</v>
+        <v>29.09500000000002</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>28.6</v>
       </c>
       <c r="C54" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D54" t="n">
         <v>28.6</v>
       </c>
       <c r="E54" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F54" t="n">
-        <v>3280.1596</v>
+        <v>53701.4307</v>
       </c>
       <c r="G54" t="n">
-        <v>29.08666666666669</v>
+        <v>29.09000000000002</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>28.6</v>
       </c>
       <c r="F55" t="n">
-        <v>3598.1112</v>
+        <v>3280.1596</v>
       </c>
       <c r="G55" t="n">
-        <v>29.08166666666669</v>
+        <v>29.08666666666669</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C56" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D56" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E56" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F56" t="n">
-        <v>8312.4493</v>
+        <v>3598.1112</v>
       </c>
       <c r="G56" t="n">
-        <v>29.07833333333335</v>
+        <v>29.08166666666669</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>28.7</v>
       </c>
       <c r="F57" t="n">
-        <v>39900</v>
+        <v>8312.4493</v>
       </c>
       <c r="G57" t="n">
-        <v>29.07666666666669</v>
+        <v>29.07833333333335</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>28.7</v>
       </c>
       <c r="F58" t="n">
-        <v>4285.7502</v>
+        <v>39900</v>
       </c>
       <c r="G58" t="n">
-        <v>29.07500000000002</v>
+        <v>29.07666666666669</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>28.7</v>
       </c>
       <c r="F59" t="n">
-        <v>791.0687</v>
+        <v>4285.7502</v>
       </c>
       <c r="G59" t="n">
-        <v>29.07333333333336</v>
+        <v>29.07500000000002</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C60" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D60" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E60" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F60" t="n">
-        <v>9661.8958</v>
+        <v>791.0687</v>
       </c>
       <c r="G60" t="n">
-        <v>29.07000000000003</v>
+        <v>29.07333333333336</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C61" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="D61" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="E61" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>9661.8958</v>
       </c>
       <c r="G61" t="n">
         <v>29.07000000000003</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="C62" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="D62" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E62" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="F62" t="n">
-        <v>9675.75</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>29.06500000000002</v>
+        <v>29.07000000000003</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C63" t="n">
         <v>28.5</v>
       </c>
-      <c r="C63" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D63" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E63" t="n">
         <v>28.5</v>
       </c>
       <c r="F63" t="n">
-        <v>83283.1186</v>
+        <v>9675.75</v>
       </c>
       <c r="G63" t="n">
-        <v>29.06000000000002</v>
+        <v>29.06500000000002</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C64" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D64" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E64" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="F64" t="n">
-        <v>76076.9878</v>
+        <v>83283.1186</v>
       </c>
       <c r="G64" t="n">
         <v>29.06000000000002</v>
       </c>
       <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2055,15 +2249,18 @@
         <v>28.8</v>
       </c>
       <c r="E65" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="F65" t="n">
-        <v>15258.9985</v>
+        <v>76076.9878</v>
       </c>
       <c r="G65" t="n">
-        <v>29.05833333333335</v>
+        <v>29.06000000000002</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C66" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D66" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="E66" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F66" t="n">
-        <v>753.2058</v>
+        <v>15258.9985</v>
       </c>
       <c r="G66" t="n">
-        <v>29.05333333333336</v>
+        <v>29.05833333333335</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>28.7</v>
       </c>
       <c r="C67" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D67" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E67" t="n">
         <v>28.7</v>
       </c>
       <c r="F67" t="n">
-        <v>103042.1307</v>
+        <v>753.2058</v>
       </c>
       <c r="G67" t="n">
-        <v>29.05000000000002</v>
+        <v>29.05333333333336</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C68" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D68" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E68" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F68" t="n">
-        <v>50337.2317</v>
+        <v>103042.1307</v>
       </c>
       <c r="G68" t="n">
-        <v>29.04666666666669</v>
+        <v>29.05000000000002</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>28.9</v>
       </c>
       <c r="F69" t="n">
-        <v>18449.6746</v>
+        <v>50337.2317</v>
       </c>
       <c r="G69" t="n">
-        <v>29.04166666666669</v>
+        <v>29.04666666666669</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>28.9</v>
       </c>
       <c r="F70" t="n">
-        <v>13829.0796</v>
+        <v>18449.6746</v>
       </c>
       <c r="G70" t="n">
-        <v>29.03500000000003</v>
+        <v>29.04166666666669</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>28.9</v>
       </c>
       <c r="F71" t="n">
-        <v>1000</v>
+        <v>13829.0796</v>
       </c>
       <c r="G71" t="n">
-        <v>29.02833333333336</v>
+        <v>29.03500000000003</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>28.9</v>
       </c>
       <c r="F72" t="n">
-        <v>34954.0484</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="n">
-        <v>29.02333333333337</v>
+        <v>29.02833333333336</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C73" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D73" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E73" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F73" t="n">
-        <v>35975.7899</v>
+        <v>34954.0484</v>
       </c>
       <c r="G73" t="n">
-        <v>29.01500000000003</v>
+        <v>29.02333333333337</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C74" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D74" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E74" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F74" t="n">
-        <v>28609.862</v>
+        <v>35975.7899</v>
       </c>
       <c r="G74" t="n">
-        <v>29.0116666666667</v>
+        <v>29.01500000000003</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>29</v>
       </c>
       <c r="C75" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E75" t="n">
         <v>29</v>
       </c>
       <c r="F75" t="n">
-        <v>37800</v>
+        <v>28609.862</v>
       </c>
       <c r="G75" t="n">
-        <v>29.01000000000003</v>
+        <v>29.0116666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C76" t="n">
         <v>29.1</v>
@@ -2341,15 +2568,18 @@
         <v>29.1</v>
       </c>
       <c r="E76" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F76" t="n">
-        <v>16944.5017</v>
+        <v>37800</v>
       </c>
       <c r="G76" t="n">
-        <v>29.00500000000003</v>
+        <v>29.01000000000003</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>29.1</v>
       </c>
       <c r="F77" t="n">
-        <v>22259.2466</v>
+        <v>16944.5017</v>
       </c>
       <c r="G77" t="n">
-        <v>29.00333333333336</v>
+        <v>29.00500000000003</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C78" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D78" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E78" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>22259.2466</v>
       </c>
       <c r="G78" t="n">
-        <v>28.99833333333336</v>
+        <v>29.00333333333336</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C79" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="D79" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="E79" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F79" t="n">
-        <v>26700</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="n">
-        <v>28.99666666666669</v>
+        <v>28.99833333333336</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C80" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D80" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="E80" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F80" t="n">
-        <v>228102.3712277966</v>
+        <v>26700</v>
       </c>
       <c r="G80" t="n">
         <v>28.99666666666669</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C81" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D81" t="n">
         <v>29.5</v>
       </c>
       <c r="E81" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F81" t="n">
-        <v>40113.3898</v>
+        <v>228102.3712277966</v>
       </c>
       <c r="G81" t="n">
-        <v>29.00000000000002</v>
+        <v>28.99666666666669</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C82" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D82" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E82" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F82" t="n">
-        <v>68158.9415</v>
+        <v>40113.3898</v>
       </c>
       <c r="G82" t="n">
-        <v>28.99833333333336</v>
+        <v>29.00000000000002</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C83" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D83" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E83" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>68158.9415</v>
       </c>
       <c r="G83" t="n">
         <v>28.99833333333336</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>29</v>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="D84" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="E84" t="n">
         <v>29</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>28.99000000000002</v>
+        <v>28.99833333333336</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C85" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E85" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F85" t="n">
-        <v>665.1498</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>28.98500000000002</v>
+        <v>28.99000000000002</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>29.1</v>
       </c>
       <c r="C86" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D86" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E86" t="n">
         <v>29.1</v>
       </c>
       <c r="F86" t="n">
-        <v>2529.5679</v>
+        <v>665.1498</v>
       </c>
       <c r="G86" t="n">
-        <v>28.98333333333336</v>
+        <v>28.98500000000002</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,7 +2878,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C87" t="n">
         <v>29.2</v>
@@ -2627,15 +2887,18 @@
         <v>29.2</v>
       </c>
       <c r="E87" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1116.7274</v>
+        <v>2529.5679</v>
       </c>
       <c r="G87" t="n">
-        <v>28.98000000000002</v>
+        <v>28.98333333333336</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>29.2</v>
       </c>
       <c r="F88" t="n">
-        <v>20934</v>
+        <v>1116.7274</v>
       </c>
       <c r="G88" t="n">
-        <v>28.97666666666669</v>
+        <v>28.98000000000002</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>29.2</v>
       </c>
       <c r="F89" t="n">
-        <v>2271.0616</v>
+        <v>20934</v>
       </c>
       <c r="G89" t="n">
         <v>28.97666666666669</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>29.2</v>
       </c>
       <c r="F90" t="n">
-        <v>2455.0684</v>
+        <v>2271.0616</v>
       </c>
       <c r="G90" t="n">
-        <v>28.97500000000002</v>
+        <v>28.97666666666669</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>29.2</v>
       </c>
       <c r="F91" t="n">
-        <v>15721.8266</v>
+        <v>2455.0684</v>
       </c>
       <c r="G91" t="n">
-        <v>28.97000000000002</v>
+        <v>28.97500000000002</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C92" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D92" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E92" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F92" t="n">
-        <v>53289.2682</v>
+        <v>15721.8266</v>
       </c>
       <c r="G92" t="n">
-        <v>28.96333333333336</v>
+        <v>28.97000000000002</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>29.1</v>
       </c>
       <c r="F93" t="n">
-        <v>2265.3839</v>
+        <v>53289.2682</v>
       </c>
       <c r="G93" t="n">
-        <v>28.95833333333335</v>
+        <v>28.96333333333336</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>29.1</v>
       </c>
       <c r="F94" t="n">
-        <v>17779.6433</v>
+        <v>2265.3839</v>
       </c>
       <c r="G94" t="n">
-        <v>28.95333333333335</v>
+        <v>28.95833333333335</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C95" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D95" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E95" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F95" t="n">
-        <v>117439.3958</v>
+        <v>17779.6433</v>
       </c>
       <c r="G95" t="n">
-        <v>28.94833333333335</v>
+        <v>28.95333333333335</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C96" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="D96" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E96" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>117439.3958</v>
       </c>
       <c r="G96" t="n">
-        <v>28.94666666666668</v>
+        <v>28.94833333333335</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C97" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D97" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E97" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F97" t="n">
-        <v>989.9041</v>
+        <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>28.94333333333335</v>
+        <v>28.94666666666668</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C98" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D98" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E98" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F98" t="n">
-        <v>22155.3197</v>
+        <v>989.9041</v>
       </c>
       <c r="G98" t="n">
-        <v>28.93666666666669</v>
+        <v>28.94333333333335</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C99" t="n">
         <v>28.9</v>
       </c>
       <c r="D99" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E99" t="n">
         <v>28.9</v>
       </c>
       <c r="F99" t="n">
-        <v>8194.4334</v>
+        <v>22155.3197</v>
       </c>
       <c r="G99" t="n">
-        <v>28.93166666666669</v>
+        <v>28.93666666666669</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C100" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D100" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E100" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F100" t="n">
-        <v>3599.8342</v>
+        <v>8194.4334</v>
       </c>
       <c r="G100" t="n">
-        <v>28.92833333333335</v>
+        <v>28.93166666666669</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>29</v>
       </c>
       <c r="F101" t="n">
-        <v>31247.4765</v>
+        <v>3599.8342</v>
       </c>
       <c r="G101" t="n">
-        <v>28.92500000000002</v>
+        <v>28.92833333333335</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C102" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D102" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E102" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F102" t="n">
-        <v>1114</v>
+        <v>31247.4765</v>
       </c>
       <c r="G102" t="n">
         <v>28.92500000000002</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>29.1</v>
       </c>
       <c r="F103" t="n">
-        <v>677.5067</v>
+        <v>1114</v>
       </c>
       <c r="G103" t="n">
         <v>28.92500000000002</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C104" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D104" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E104" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F104" t="n">
-        <v>675.8129</v>
+        <v>677.5067</v>
       </c>
       <c r="G104" t="n">
-        <v>28.92666666666668</v>
+        <v>28.92500000000002</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C105" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D105" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E105" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F105" t="n">
-        <v>27400</v>
+        <v>675.8129</v>
       </c>
       <c r="G105" t="n">
-        <v>28.93500000000002</v>
+        <v>28.92666666666668</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F106" t="n">
-        <v>21090.2389</v>
+        <v>27400</v>
       </c>
       <c r="G106" t="n">
-        <v>28.94500000000001</v>
+        <v>28.93500000000002</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>29.3</v>
       </c>
       <c r="F107" t="n">
-        <v>543.1399</v>
+        <v>21090.2389</v>
       </c>
       <c r="G107" t="n">
-        <v>28.95666666666668</v>
+        <v>28.94500000000001</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>29.3</v>
       </c>
       <c r="F108" t="n">
-        <v>14932.4914</v>
+        <v>543.1399</v>
       </c>
       <c r="G108" t="n">
-        <v>28.96333333333335</v>
+        <v>28.95666666666668</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>29.3</v>
       </c>
       <c r="F109" t="n">
-        <v>10232.6279</v>
+        <v>14932.4914</v>
       </c>
       <c r="G109" t="n">
-        <v>28.97000000000001</v>
+        <v>28.96333333333335</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>29.3</v>
       </c>
       <c r="F110" t="n">
-        <v>35659.9668</v>
+        <v>10232.6279</v>
       </c>
       <c r="G110" t="n">
-        <v>28.98000000000001</v>
+        <v>28.97000000000001</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>29.3</v>
       </c>
       <c r="F111" t="n">
-        <v>16112.8331</v>
+        <v>35659.9668</v>
       </c>
       <c r="G111" t="n">
-        <v>28.99000000000001</v>
+        <v>28.98000000000001</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>29.3</v>
       </c>
       <c r="F112" t="n">
-        <v>19242</v>
+        <v>16112.8331</v>
       </c>
       <c r="G112" t="n">
-        <v>29.00000000000001</v>
+        <v>28.99000000000001</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>29.3</v>
       </c>
       <c r="F113" t="n">
-        <v>27221.8212</v>
+        <v>19242</v>
       </c>
       <c r="G113" t="n">
-        <v>29.01333333333334</v>
+        <v>29.00000000000001</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="C114" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D114" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E114" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F114" t="n">
-        <v>11227.0659</v>
+        <v>27221.8212</v>
       </c>
       <c r="G114" t="n">
-        <v>29.02166666666667</v>
+        <v>29.01333333333334</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="C115" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="D115" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="E115" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F115" t="n">
-        <v>3478.9168</v>
+        <v>11227.0659</v>
       </c>
       <c r="G115" t="n">
-        <v>29.03333333333334</v>
+        <v>29.02166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,10 +3719,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C116" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D116" t="n">
         <v>29.4</v>
@@ -3384,12 +3731,15 @@
         <v>29.3</v>
       </c>
       <c r="F116" t="n">
-        <v>26062.3887</v>
+        <v>3478.9168</v>
       </c>
       <c r="G116" t="n">
-        <v>29.04500000000001</v>
+        <v>29.03333333333334</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C117" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D117" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E117" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F117" t="n">
-        <v>1429.6814</v>
+        <v>26062.3887</v>
       </c>
       <c r="G117" t="n">
-        <v>29.05166666666667</v>
+        <v>29.04500000000001</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C118" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D118" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E118" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F118" t="n">
-        <v>221026.3553</v>
+        <v>1429.6814</v>
       </c>
       <c r="G118" t="n">
-        <v>29.05666666666667</v>
+        <v>29.05166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3806,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C119" t="n">
         <v>29</v>
@@ -3462,12 +3818,15 @@
         <v>28.9</v>
       </c>
       <c r="F119" t="n">
-        <v>9358.1775</v>
+        <v>221026.3553</v>
       </c>
       <c r="G119" t="n">
-        <v>29.06166666666667</v>
+        <v>29.05666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C120" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D120" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E120" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F120" t="n">
-        <v>33404.0392</v>
+        <v>9358.1775</v>
       </c>
       <c r="G120" t="n">
-        <v>29.06333333333334</v>
+        <v>29.06166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>28.8</v>
       </c>
       <c r="C121" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D121" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E121" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F121" t="n">
-        <v>4459.0716</v>
+        <v>33404.0392</v>
       </c>
       <c r="G121" t="n">
-        <v>29.06666666666667</v>
+        <v>29.06333333333334</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C122" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D122" t="n">
         <v>29</v>
       </c>
       <c r="E122" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F122" t="n">
-        <v>166417.2845</v>
+        <v>4459.0716</v>
       </c>
       <c r="G122" t="n">
-        <v>29.07000000000001</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="C123" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D123" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E123" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F123" t="n">
-        <v>22878.0502</v>
+        <v>166417.2845</v>
       </c>
       <c r="G123" t="n">
-        <v>29.06833333333334</v>
+        <v>29.07000000000001</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C124" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D124" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E124" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F124" t="n">
-        <v>11</v>
+        <v>22878.0502</v>
       </c>
       <c r="G124" t="n">
-        <v>29.07000000000001</v>
+        <v>29.06833333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C125" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D125" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E125" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F125" t="n">
         <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>29.07333333333334</v>
+        <v>29.07000000000001</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="C126" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="D126" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E126" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="F126" t="n">
-        <v>633.8853</v>
+        <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>29.07500000000001</v>
+        <v>29.07333333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C127" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D127" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E127" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F127" t="n">
-        <v>34024</v>
+        <v>633.8853</v>
       </c>
       <c r="G127" t="n">
-        <v>29.07833333333334</v>
+        <v>29.07500000000001</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C128" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="D128" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E128" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="F128" t="n">
-        <v>40013.1063</v>
+        <v>34024</v>
       </c>
       <c r="G128" t="n">
-        <v>29.07333333333334</v>
+        <v>29.07833333333334</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C129" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D129" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E129" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F129" t="n">
-        <v>11</v>
+        <v>40013.1063</v>
       </c>
       <c r="G129" t="n">
         <v>29.07333333333334</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C130" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D130" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E130" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F130" t="n">
-        <v>697.4211</v>
+        <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>29.07</v>
+        <v>29.07333333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C131" t="n">
         <v>28.7</v>
       </c>
       <c r="D131" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E131" t="n">
         <v>28.7</v>
       </c>
       <c r="F131" t="n">
-        <v>15137.5018</v>
+        <v>697.4211</v>
       </c>
       <c r="G131" t="n">
-        <v>29.06666666666667</v>
+        <v>29.07</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3791,21 +4186,24 @@
         <v>28.8</v>
       </c>
       <c r="C132" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D132" t="n">
         <v>28.8</v>
       </c>
       <c r="E132" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F132" t="n">
-        <v>767.8633</v>
+        <v>15137.5018</v>
       </c>
       <c r="G132" t="n">
-        <v>29.065</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>28.8</v>
       </c>
       <c r="F133" t="n">
-        <v>5336.642</v>
+        <v>767.8633</v>
       </c>
       <c r="G133" t="n">
-        <v>29.06666666666667</v>
+        <v>29.065</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C134" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D134" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E134" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F134" t="n">
-        <v>10722.3303</v>
+        <v>5336.642</v>
       </c>
       <c r="G134" t="n">
-        <v>29.065</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C135" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D135" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E135" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F135" t="n">
-        <v>31403.0211</v>
+        <v>10722.3303</v>
       </c>
       <c r="G135" t="n">
-        <v>29.06</v>
+        <v>29.065</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C136" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D136" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="E136" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F136" t="n">
-        <v>110786.24</v>
+        <v>31403.0211</v>
       </c>
       <c r="G136" t="n">
-        <v>29.05333333333334</v>
+        <v>29.06</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>28.7</v>
       </c>
       <c r="F137" t="n">
-        <v>2760.1471</v>
+        <v>110786.24</v>
       </c>
       <c r="G137" t="n">
-        <v>29.04666666666667</v>
+        <v>29.05333333333334</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>28.7</v>
       </c>
       <c r="F138" t="n">
-        <v>34702.2632</v>
+        <v>2760.1471</v>
       </c>
       <c r="G138" t="n">
-        <v>29.04333333333334</v>
+        <v>29.04666666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>28.7</v>
       </c>
       <c r="F139" t="n">
-        <v>997.5</v>
+        <v>34702.2632</v>
       </c>
       <c r="G139" t="n">
-        <v>29.03666666666668</v>
+        <v>29.04333333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C140" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D140" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E140" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>997.5</v>
       </c>
       <c r="G140" t="n">
-        <v>29.03166666666668</v>
+        <v>29.03666666666668</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4444,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C141" t="n">
         <v>28.9</v>
@@ -4031,15 +4453,18 @@
         <v>28.9</v>
       </c>
       <c r="E141" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>29.02166666666668</v>
+        <v>29.03166666666668</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C142" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D142" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E142" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F142" t="n">
-        <v>2930.1375</v>
+        <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>29.01333333333334</v>
+        <v>29.02166666666668</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C143" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D143" t="n">
         <v>29</v>
       </c>
       <c r="E143" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F143" t="n">
-        <v>100</v>
+        <v>2930.1375</v>
       </c>
       <c r="G143" t="n">
-        <v>29.00833333333334</v>
+        <v>29.01333333333334</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C144" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="D144" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E144" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F144" t="n">
-        <v>821.7679000000001</v>
+        <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>29.00666666666668</v>
+        <v>29.00833333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>28.9</v>
       </c>
       <c r="F145" t="n">
-        <v>80</v>
+        <v>821.7679000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>29.00333333333335</v>
+        <v>29.00666666666668</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C146" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D146" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E146" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F146" t="n">
-        <v>899.5134</v>
+        <v>80</v>
       </c>
       <c r="G146" t="n">
-        <v>28.99500000000002</v>
+        <v>29.00333333333335</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C147" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D147" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="E147" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F147" t="n">
-        <v>16383.7134</v>
+        <v>899.5134</v>
       </c>
       <c r="G147" t="n">
-        <v>28.99166666666668</v>
+        <v>28.99500000000002</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C148" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D148" t="n">
         <v>29.1</v>
       </c>
       <c r="E148" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F148" t="n">
-        <v>4983.7134</v>
+        <v>16383.7134</v>
       </c>
       <c r="G148" t="n">
-        <v>28.99000000000001</v>
+        <v>28.99166666666668</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +4676,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C149" t="n">
         <v>29.1</v>
@@ -4239,15 +4685,18 @@
         <v>29.1</v>
       </c>
       <c r="E149" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F149" t="n">
-        <v>10200</v>
+        <v>4983.7134</v>
       </c>
       <c r="G149" t="n">
-        <v>28.98833333333334</v>
+        <v>28.99000000000001</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F150" t="n">
-        <v>29600</v>
+        <v>10200</v>
       </c>
       <c r="G150" t="n">
         <v>28.98833333333334</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>29.2</v>
       </c>
       <c r="F151" t="n">
-        <v>10000</v>
+        <v>29600</v>
       </c>
       <c r="G151" t="n">
         <v>28.98833333333334</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C152" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D152" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E152" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F152" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G152" t="n">
-        <v>28.99166666666668</v>
+        <v>28.98833333333334</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4792,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C153" t="n">
         <v>29.3</v>
@@ -4343,15 +4801,18 @@
         <v>29.3</v>
       </c>
       <c r="E153" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F153" t="n">
-        <v>23064.3093</v>
+        <v>100</v>
       </c>
       <c r="G153" t="n">
-        <v>28.99500000000001</v>
+        <v>28.99166666666668</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,21 +4824,24 @@
         <v>29.2</v>
       </c>
       <c r="C154" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D154" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E154" t="n">
         <v>29.2</v>
       </c>
       <c r="F154" t="n">
-        <v>36430</v>
+        <v>23064.3093</v>
       </c>
       <c r="G154" t="n">
-        <v>28.99666666666668</v>
+        <v>28.99500000000001</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,7 +4850,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C155" t="n">
         <v>29.2</v>
@@ -4395,15 +4859,18 @@
         <v>29.2</v>
       </c>
       <c r="E155" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F155" t="n">
-        <v>5749.0153</v>
+        <v>36430</v>
       </c>
       <c r="G155" t="n">
-        <v>29.00166666666668</v>
+        <v>28.99666666666668</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4879,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C156" t="n">
         <v>29.2</v>
@@ -4421,15 +4888,18 @@
         <v>29.2</v>
       </c>
       <c r="E156" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F156" t="n">
-        <v>33300</v>
+        <v>5749.0153</v>
       </c>
       <c r="G156" t="n">
         <v>29.00166666666668</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>29.2</v>
       </c>
       <c r="F157" t="n">
-        <v>59297</v>
+        <v>33300</v>
       </c>
       <c r="G157" t="n">
-        <v>29.00333333333335</v>
+        <v>29.00166666666668</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>29.2</v>
       </c>
       <c r="F158" t="n">
-        <v>6868</v>
+        <v>59297</v>
       </c>
       <c r="G158" t="n">
-        <v>29.00833333333335</v>
+        <v>29.00333333333335</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>29.2</v>
       </c>
       <c r="F159" t="n">
-        <v>25174</v>
+        <v>6868</v>
       </c>
       <c r="G159" t="n">
-        <v>29.01333333333335</v>
+        <v>29.00833333333335</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>29.2</v>
       </c>
       <c r="F160" t="n">
-        <v>23490</v>
+        <v>25174</v>
       </c>
       <c r="G160" t="n">
-        <v>29.01666666666668</v>
+        <v>29.01333333333335</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>29.2</v>
       </c>
       <c r="F161" t="n">
-        <v>16891</v>
+        <v>23490</v>
       </c>
       <c r="G161" t="n">
-        <v>29.02000000000002</v>
+        <v>29.01666666666668</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>29.2</v>
       </c>
       <c r="F162" t="n">
-        <v>3757</v>
+        <v>16891</v>
       </c>
       <c r="G162" t="n">
-        <v>29.02166666666669</v>
+        <v>29.02000000000002</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C163" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D163" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E163" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="F163" t="n">
-        <v>75143.94259999999</v>
+        <v>3757</v>
       </c>
       <c r="G163" t="n">
         <v>29.02166666666669</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4629,15 +5120,18 @@
         <v>29.1</v>
       </c>
       <c r="E164" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F164" t="n">
-        <v>1456.279</v>
+        <v>75143.94259999999</v>
       </c>
       <c r="G164" t="n">
-        <v>29.02333333333335</v>
+        <v>29.02166666666669</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>29.1</v>
       </c>
       <c r="F165" t="n">
-        <v>21090.2389</v>
+        <v>1456.279</v>
       </c>
       <c r="G165" t="n">
-        <v>29.02166666666668</v>
+        <v>29.02333333333335</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C166" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D166" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E166" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>21090.2389</v>
       </c>
       <c r="G166" t="n">
-        <v>29.02000000000002</v>
+        <v>29.02166666666668</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>29.2</v>
       </c>
       <c r="C167" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D167" t="n">
         <v>29.2</v>
       </c>
       <c r="E167" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F167" t="n">
-        <v>35162.7296</v>
+        <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>29.01666666666668</v>
+        <v>29.02000000000002</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C168" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="D168" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E168" t="n">
         <v>29.1</v>
       </c>
       <c r="F168" t="n">
-        <v>151296.4517</v>
+        <v>35162.7296</v>
       </c>
       <c r="G168" t="n">
         <v>29.01666666666668</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,7 +5256,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="C169" t="n">
         <v>29.3</v>
@@ -4759,15 +5265,18 @@
         <v>29.3</v>
       </c>
       <c r="E169" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F169" t="n">
-        <v>8266.689399999999</v>
+        <v>151296.4517</v>
       </c>
       <c r="G169" t="n">
         <v>29.01666666666668</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>29.3</v>
       </c>
       <c r="F170" t="n">
-        <v>94978.9078</v>
+        <v>8266.689399999999</v>
       </c>
       <c r="G170" t="n">
         <v>29.01666666666668</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>29.3</v>
       </c>
       <c r="F171" t="n">
-        <v>62421.1972</v>
+        <v>94978.9078</v>
       </c>
       <c r="G171" t="n">
         <v>29.01666666666668</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>29.3</v>
       </c>
       <c r="F172" t="n">
-        <v>29328.2285</v>
+        <v>62421.1972</v>
       </c>
       <c r="G172" t="n">
         <v>29.01666666666668</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +5372,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C173" t="n">
         <v>29.3</v>
@@ -4863,15 +5381,18 @@
         <v>29.3</v>
       </c>
       <c r="E173" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F173" t="n">
-        <v>1864.3476</v>
+        <v>29328.2285</v>
       </c>
       <c r="G173" t="n">
         <v>29.01666666666668</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,10 +5401,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C174" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D174" t="n">
         <v>29.3</v>
@@ -4892,12 +5413,15 @@
         <v>29.2</v>
       </c>
       <c r="F174" t="n">
-        <v>197671.9999</v>
+        <v>1864.3476</v>
       </c>
       <c r="G174" t="n">
-        <v>29.01833333333335</v>
+        <v>29.01666666666668</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,10 +5430,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C175" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D175" t="n">
         <v>29.3</v>
@@ -4918,12 +5442,15 @@
         <v>29.2</v>
       </c>
       <c r="F175" t="n">
-        <v>101129</v>
+        <v>197671.9999</v>
       </c>
       <c r="G175" t="n">
         <v>29.01833333333335</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +5459,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C176" t="n">
         <v>29.3</v>
@@ -4941,15 +5468,18 @@
         <v>29.3</v>
       </c>
       <c r="E176" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F176" t="n">
-        <v>12714</v>
+        <v>101129</v>
       </c>
       <c r="G176" t="n">
-        <v>29.01666666666668</v>
+        <v>29.01833333333335</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>29.3</v>
       </c>
       <c r="F177" t="n">
-        <v>14600</v>
+        <v>12714</v>
       </c>
       <c r="G177" t="n">
-        <v>29.02000000000002</v>
+        <v>29.01666666666668</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +5517,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C178" t="n">
         <v>29.3</v>
@@ -4993,15 +5526,18 @@
         <v>29.3</v>
       </c>
       <c r="E178" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F178" t="n">
-        <v>18716.1054</v>
+        <v>14600</v>
       </c>
       <c r="G178" t="n">
-        <v>29.02500000000002</v>
+        <v>29.02000000000002</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,7 +5546,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C179" t="n">
         <v>29.3</v>
@@ -5019,15 +5555,18 @@
         <v>29.3</v>
       </c>
       <c r="E179" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F179" t="n">
-        <v>7521.4675</v>
+        <v>18716.1054</v>
       </c>
       <c r="G179" t="n">
-        <v>29.03000000000002</v>
+        <v>29.02500000000002</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>29.3</v>
       </c>
       <c r="F180" t="n">
-        <v>2245</v>
+        <v>7521.4675</v>
       </c>
       <c r="G180" t="n">
-        <v>29.04000000000001</v>
+        <v>29.03000000000002</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>29.3</v>
       </c>
       <c r="F181" t="n">
-        <v>7975.936</v>
+        <v>2245</v>
       </c>
       <c r="G181" t="n">
-        <v>29.04500000000001</v>
+        <v>29.04000000000001</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C182" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D182" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E182" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F182" t="n">
-        <v>21241.2328</v>
+        <v>7975.936</v>
       </c>
       <c r="G182" t="n">
-        <v>29.05333333333335</v>
+        <v>29.04500000000001</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>29.2</v>
       </c>
       <c r="F183" t="n">
-        <v>53674.7708</v>
+        <v>21241.2328</v>
       </c>
       <c r="G183" t="n">
-        <v>29.06333333333335</v>
+        <v>29.05333333333335</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C184" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D184" t="n">
         <v>29.2</v>
       </c>
       <c r="E184" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F184" t="n">
-        <v>3590</v>
+        <v>53674.7708</v>
       </c>
       <c r="G184" t="n">
-        <v>29.06666666666668</v>
+        <v>29.06333333333335</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5172,18 +5726,21 @@
         <v>29.1</v>
       </c>
       <c r="D185" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E185" t="n">
         <v>29.1</v>
       </c>
       <c r="F185" t="n">
-        <v>2455.0684</v>
+        <v>3590</v>
       </c>
       <c r="G185" t="n">
-        <v>29.06833333333334</v>
+        <v>29.06666666666668</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C186" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D186" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E186" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F186" t="n">
-        <v>71921.4399</v>
+        <v>2455.0684</v>
       </c>
       <c r="G186" t="n">
-        <v>29.07500000000001</v>
+        <v>29.06833333333334</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>29.2</v>
       </c>
       <c r="F187" t="n">
-        <v>15993.7992</v>
+        <v>71921.4399</v>
       </c>
       <c r="G187" t="n">
-        <v>29.07833333333334</v>
+        <v>29.07500000000001</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C188" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D188" t="n">
         <v>29.2</v>
       </c>
       <c r="E188" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F188" t="n">
-        <v>46345.8347</v>
+        <v>15993.7992</v>
       </c>
       <c r="G188" t="n">
-        <v>29.08666666666668</v>
+        <v>29.07833333333334</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C189" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D189" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E189" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F189" t="n">
-        <v>2884.0005</v>
+        <v>46345.8347</v>
       </c>
       <c r="G189" t="n">
-        <v>29.08833333333335</v>
+        <v>29.08666666666668</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C190" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D190" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E190" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F190" t="n">
-        <v>1425.4845</v>
+        <v>2884.0005</v>
       </c>
       <c r="G190" t="n">
-        <v>29.09500000000001</v>
+        <v>29.08833333333335</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C191" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D191" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E191" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F191" t="n">
-        <v>17872.5618</v>
+        <v>1425.4845</v>
       </c>
       <c r="G191" t="n">
-        <v>29.10333333333334</v>
+        <v>29.09500000000001</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C192" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D192" t="n">
         <v>29.2</v>
       </c>
       <c r="E192" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F192" t="n">
-        <v>3408.4486</v>
+        <v>17872.5618</v>
       </c>
       <c r="G192" t="n">
-        <v>29.10833333333334</v>
+        <v>29.10333333333334</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>29.2</v>
       </c>
       <c r="C193" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D193" t="n">
         <v>29.2</v>
       </c>
       <c r="E193" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F193" t="n">
-        <v>14577.5684</v>
+        <v>3408.4486</v>
       </c>
       <c r="G193" t="n">
-        <v>29.11500000000001</v>
+        <v>29.10833333333334</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,7 +5981,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C194" t="n">
         <v>29.2</v>
@@ -5409,15 +5990,18 @@
         <v>29.2</v>
       </c>
       <c r="E194" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F194" t="n">
-        <v>13294.3493</v>
+        <v>14577.5684</v>
       </c>
       <c r="G194" t="n">
-        <v>29.12000000000001</v>
+        <v>29.11500000000001</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,7 +6010,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C195" t="n">
         <v>29.2</v>
@@ -5435,15 +6019,18 @@
         <v>29.2</v>
       </c>
       <c r="E195" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F195" t="n">
-        <v>34800</v>
+        <v>13294.3493</v>
       </c>
       <c r="G195" t="n">
-        <v>29.12666666666668</v>
+        <v>29.12000000000001</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C196" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D196" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E196" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F196" t="n">
-        <v>1111</v>
+        <v>34800</v>
       </c>
       <c r="G196" t="n">
-        <v>29.13333333333334</v>
+        <v>29.12666666666668</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>29.1</v>
       </c>
       <c r="C197" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D197" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E197" t="n">
         <v>29.1</v>
       </c>
       <c r="F197" t="n">
-        <v>50</v>
+        <v>1111</v>
       </c>
       <c r="G197" t="n">
-        <v>29.14166666666667</v>
+        <v>29.13333333333334</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C198" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D198" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E198" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F198" t="n">
-        <v>19701</v>
+        <v>50</v>
       </c>
       <c r="G198" t="n">
-        <v>29.15166666666667</v>
+        <v>29.14166666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,7 +6126,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C199" t="n">
         <v>29.3</v>
@@ -5539,15 +6135,18 @@
         <v>29.3</v>
       </c>
       <c r="E199" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F199" t="n">
-        <v>19.8293</v>
+        <v>19701</v>
       </c>
       <c r="G199" t="n">
-        <v>29.16166666666667</v>
+        <v>29.15166666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C200" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D200" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E200" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F200" t="n">
-        <v>1534.6153</v>
+        <v>19.8293</v>
       </c>
       <c r="G200" t="n">
-        <v>29.16666666666667</v>
+        <v>29.16166666666667</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>29.2</v>
       </c>
       <c r="F201" t="n">
-        <v>2841.7368</v>
+        <v>1534.6153</v>
       </c>
       <c r="G201" t="n">
-        <v>29.17166666666667</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5614,18 +6219,21 @@
         <v>29.2</v>
       </c>
       <c r="D202" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E202" t="n">
         <v>29.2</v>
       </c>
       <c r="F202" t="n">
-        <v>21584.9095</v>
+        <v>2841.7368</v>
       </c>
       <c r="G202" t="n">
-        <v>29.18</v>
+        <v>29.17166666666667</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C203" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D203" t="n">
         <v>29.3</v>
       </c>
       <c r="E203" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F203" t="n">
-        <v>67964.26119999999</v>
+        <v>21584.9095</v>
       </c>
       <c r="G203" t="n">
-        <v>29.185</v>
+        <v>29.18</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C204" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D204" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E204" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F204" t="n">
-        <v>5470.9999</v>
+        <v>67964.26119999999</v>
       </c>
       <c r="G204" t="n">
-        <v>29.19</v>
+        <v>29.185</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C205" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D205" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E205" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F205" t="n">
-        <v>35545.4191</v>
+        <v>5470.9999</v>
       </c>
       <c r="G205" t="n">
-        <v>29.19333333333333</v>
+        <v>29.19</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>29.1</v>
       </c>
       <c r="C206" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D206" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E206" t="n">
         <v>29.1</v>
       </c>
       <c r="F206" t="n">
-        <v>29658.7655</v>
+        <v>35545.4191</v>
       </c>
       <c r="G206" t="n">
-        <v>29.20166666666666</v>
+        <v>29.19333333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +6358,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C207" t="n">
         <v>29.2</v>
@@ -5747,15 +6367,18 @@
         <v>29.2</v>
       </c>
       <c r="E207" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F207" t="n">
-        <v>31732.2838</v>
+        <v>29658.7655</v>
       </c>
       <c r="G207" t="n">
-        <v>29.205</v>
+        <v>29.20166666666666</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C208" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D208" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E208" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F208" t="n">
-        <v>4095.2725</v>
+        <v>31732.2838</v>
       </c>
       <c r="G208" t="n">
         <v>29.205</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C209" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D209" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E209" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F209" t="n">
-        <v>18509.5285</v>
+        <v>4095.2725</v>
       </c>
       <c r="G209" t="n">
-        <v>29.20166666666667</v>
+        <v>29.205</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C210" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="D210" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E210" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="F210" t="n">
-        <v>16380</v>
+        <v>18509.5285</v>
       </c>
       <c r="G210" t="n">
         <v>29.20166666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C211" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D211" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E211" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F211" t="n">
-        <v>4501.536</v>
+        <v>16380</v>
       </c>
       <c r="G211" t="n">
-        <v>29.19833333333333</v>
+        <v>29.20166666666667</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,12 +6515,15 @@
         <v>29</v>
       </c>
       <c r="F212" t="n">
-        <v>8817.251</v>
+        <v>4501.536</v>
       </c>
       <c r="G212" t="n">
-        <v>29.19333333333334</v>
+        <v>29.19833333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C213" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D213" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E213" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F213" t="n">
-        <v>1700</v>
+        <v>8817.251</v>
       </c>
       <c r="G213" t="n">
-        <v>29.19166666666667</v>
+        <v>29.19333333333334</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C214" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D214" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E214" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F214" t="n">
-        <v>1317</v>
+        <v>1700</v>
       </c>
       <c r="G214" t="n">
-        <v>29.19</v>
+        <v>29.19166666666667</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C215" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D215" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E215" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F215" t="n">
-        <v>14100</v>
+        <v>1317</v>
       </c>
       <c r="G215" t="n">
         <v>29.19</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C216" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D216" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E216" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F216" t="n">
-        <v>64701.7523</v>
+        <v>14100</v>
       </c>
       <c r="G216" t="n">
-        <v>29.18666666666667</v>
+        <v>29.19</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C217" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D217" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E217" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F217" t="n">
-        <v>3459.4522</v>
+        <v>64701.7523</v>
       </c>
       <c r="G217" t="n">
-        <v>29.185</v>
+        <v>29.18666666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,7 +6677,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C218" t="n">
         <v>29.1</v>
@@ -6033,15 +6686,18 @@
         <v>29.1</v>
       </c>
       <c r="E218" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F218" t="n">
-        <v>4429.2338</v>
+        <v>3459.4522</v>
       </c>
       <c r="G218" t="n">
-        <v>29.18333333333333</v>
+        <v>29.185</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,7 +6706,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C219" t="n">
         <v>29.1</v>
@@ -6059,15 +6715,18 @@
         <v>29.1</v>
       </c>
       <c r="E219" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F219" t="n">
-        <v>10393.8477</v>
+        <v>4429.2338</v>
       </c>
       <c r="G219" t="n">
-        <v>29.18166666666666</v>
+        <v>29.18333333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C220" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D220" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E220" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F220" t="n">
-        <v>31600</v>
+        <v>10393.8477</v>
       </c>
       <c r="G220" t="n">
-        <v>29.17666666666666</v>
+        <v>29.18166666666666</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6105,21 +6767,24 @@
         <v>29</v>
       </c>
       <c r="C221" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D221" t="n">
         <v>29</v>
       </c>
       <c r="E221" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F221" t="n">
-        <v>1386.9566</v>
+        <v>31600</v>
       </c>
       <c r="G221" t="n">
-        <v>29.17333333333333</v>
+        <v>29.17666666666666</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>29</v>
       </c>
       <c r="F222" t="n">
-        <v>1044.0257</v>
+        <v>1386.9566</v>
       </c>
       <c r="G222" t="n">
-        <v>29.16999999999999</v>
+        <v>29.17333333333333</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C223" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="D223" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E223" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="F223" t="n">
-        <v>66756.9822</v>
+        <v>1044.0257</v>
       </c>
       <c r="G223" t="n">
-        <v>29.165</v>
+        <v>29.16999999999999</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6183,21 +6854,24 @@
         <v>28.9</v>
       </c>
       <c r="C224" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D224" t="n">
         <v>28.9</v>
       </c>
       <c r="E224" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F224" t="n">
-        <v>616.5974</v>
+        <v>66756.9822</v>
       </c>
       <c r="G224" t="n">
-        <v>29.16166666666667</v>
+        <v>29.165</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C225" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D225" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E225" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F225" t="n">
-        <v>369.0406</v>
+        <v>616.5974</v>
       </c>
       <c r="G225" t="n">
-        <v>29.15666666666666</v>
+        <v>29.16166666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C226" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D226" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E226" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="F226" t="n">
-        <v>16668.4641</v>
+        <v>369.0406</v>
       </c>
       <c r="G226" t="n">
-        <v>29.15333333333333</v>
+        <v>29.15666666666666</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C227" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D227" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E227" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F227" t="n">
-        <v>8764.9828</v>
+        <v>16668.4641</v>
       </c>
       <c r="G227" t="n">
         <v>29.15333333333333</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,7 +6967,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="C228" t="n">
         <v>29.1</v>
@@ -6293,15 +6976,18 @@
         <v>29.1</v>
       </c>
       <c r="E228" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F228" t="n">
-        <v>24569.7737</v>
+        <v>8764.9828</v>
       </c>
       <c r="G228" t="n">
-        <v>29.15</v>
+        <v>29.15333333333333</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C229" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D229" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E229" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F229" t="n">
-        <v>28390.2869</v>
+        <v>24569.7737</v>
       </c>
       <c r="G229" t="n">
-        <v>29.145</v>
+        <v>29.15</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,12 +7037,15 @@
         <v>29</v>
       </c>
       <c r="F230" t="n">
-        <v>21774.5005</v>
+        <v>28390.2869</v>
       </c>
       <c r="G230" t="n">
-        <v>29.14</v>
+        <v>29.145</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>29</v>
       </c>
       <c r="F231" t="n">
-        <v>8647.639499999999</v>
+        <v>21774.5005</v>
       </c>
       <c r="G231" t="n">
-        <v>29.135</v>
+        <v>29.14</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6400,12 +7095,15 @@
         <v>29</v>
       </c>
       <c r="F232" t="n">
-        <v>10000</v>
+        <v>8647.639499999999</v>
       </c>
       <c r="G232" t="n">
-        <v>29.13</v>
+        <v>29.135</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C233" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D233" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E233" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F233" t="n">
-        <v>57527.3764</v>
+        <v>10000</v>
       </c>
       <c r="G233" t="n">
-        <v>29.12666666666667</v>
+        <v>29.13</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,12 +7153,15 @@
         <v>29.1</v>
       </c>
       <c r="F234" t="n">
-        <v>30908.8187</v>
+        <v>57527.3764</v>
       </c>
       <c r="G234" t="n">
-        <v>29.125</v>
+        <v>29.12666666666667</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C235" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D235" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E235" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F235" t="n">
-        <v>3552.5638</v>
+        <v>30908.8187</v>
       </c>
       <c r="G235" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6504,12 +7211,15 @@
         <v>29</v>
       </c>
       <c r="F236" t="n">
-        <v>74398.9278</v>
+        <v>3552.5638</v>
       </c>
       <c r="G236" t="n">
-        <v>29.115</v>
+        <v>29.12</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="C237" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D237" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E237" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="F237" t="n">
-        <v>13816.1769</v>
+        <v>74398.9278</v>
       </c>
       <c r="G237" t="n">
-        <v>29.105</v>
+        <v>29.115</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6547,21 +7260,24 @@
         <v>28.8</v>
       </c>
       <c r="C238" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D238" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="E238" t="n">
         <v>28.7</v>
       </c>
       <c r="F238" t="n">
-        <v>102000</v>
+        <v>13816.1769</v>
       </c>
       <c r="G238" t="n">
-        <v>29.10166666666667</v>
+        <v>29.105</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C239" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="D239" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="E239" t="n">
         <v>28.7</v>
       </c>
       <c r="F239" t="n">
-        <v>76283.0196</v>
+        <v>102000</v>
       </c>
       <c r="G239" t="n">
-        <v>29.09333333333333</v>
+        <v>29.10166666666667</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C240" t="n">
         <v>28.8</v>
       </c>
-      <c r="C240" t="n">
-        <v>28.9</v>
-      </c>
       <c r="D240" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E240" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F240" t="n">
-        <v>23102</v>
+        <v>76283.0196</v>
       </c>
       <c r="G240" t="n">
-        <v>29.08666666666667</v>
+        <v>29.09333333333333</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C241" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D241" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E241" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F241" t="n">
-        <v>632.8685</v>
+        <v>23102</v>
       </c>
       <c r="G241" t="n">
-        <v>29.07666666666667</v>
+        <v>29.08666666666667</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C242" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D242" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E242" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F242" t="n">
-        <v>180.413</v>
+        <v>632.8685</v>
       </c>
       <c r="G242" t="n">
-        <v>29.06666666666667</v>
+        <v>29.07666666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C243" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D243" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E243" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F243" t="n">
-        <v>6972.4334</v>
+        <v>180.413</v>
       </c>
       <c r="G243" t="n">
-        <v>29.05833333333333</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6712,12 +7443,15 @@
         <v>28.7</v>
       </c>
       <c r="F244" t="n">
-        <v>12670.1419</v>
+        <v>6972.4334</v>
       </c>
       <c r="G244" t="n">
-        <v>29.05166666666667</v>
+        <v>29.05833333333333</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C245" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D245" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E245" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F245" t="n">
-        <v>36.4963</v>
+        <v>12670.1419</v>
       </c>
       <c r="G245" t="n">
-        <v>29.04333333333334</v>
+        <v>29.05166666666667</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C246" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D246" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E246" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F246" t="n">
-        <v>10944</v>
+        <v>36.4963</v>
       </c>
       <c r="G246" t="n">
-        <v>29.035</v>
+        <v>29.04333333333334</v>
       </c>
       <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6790,12 +7530,15 @@
         <v>28.7</v>
       </c>
       <c r="F247" t="n">
-        <v>9167</v>
+        <v>10944</v>
       </c>
       <c r="G247" t="n">
-        <v>29.02666666666667</v>
+        <v>29.035</v>
       </c>
       <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6816,12 +7559,15 @@
         <v>28.7</v>
       </c>
       <c r="F248" t="n">
-        <v>1638</v>
+        <v>9167</v>
       </c>
       <c r="G248" t="n">
-        <v>29.02</v>
+        <v>29.02666666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C249" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D249" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E249" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F249" t="n">
-        <v>14640.0844</v>
+        <v>1638</v>
       </c>
       <c r="G249" t="n">
-        <v>29.01333333333334</v>
+        <v>29.02</v>
       </c>
       <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C250" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D250" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E250" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F250" t="n">
-        <v>2110.6809</v>
+        <v>14640.0844</v>
       </c>
       <c r="G250" t="n">
-        <v>29.00333333333334</v>
+        <v>29.01333333333334</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C251" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D251" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E251" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F251" t="n">
-        <v>906.704</v>
+        <v>2110.6809</v>
       </c>
       <c r="G251" t="n">
-        <v>28.995</v>
+        <v>29.00333333333334</v>
       </c>
       <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,7 +7663,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C252" t="n">
         <v>28.7</v>
@@ -6917,15 +7672,18 @@
         <v>28.7</v>
       </c>
       <c r="E252" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F252" t="n">
-        <v>20000</v>
+        <v>906.704</v>
       </c>
       <c r="G252" t="n">
-        <v>28.98833333333334</v>
+        <v>28.995</v>
       </c>
       <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C253" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D253" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E253" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F253" t="n">
-        <v>95230.8824</v>
+        <v>20000</v>
       </c>
       <c r="G253" t="n">
-        <v>28.97833333333334</v>
+        <v>28.98833333333334</v>
       </c>
       <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6972,12 +7733,15 @@
         <v>28.6</v>
       </c>
       <c r="F254" t="n">
-        <v>49164.8446</v>
+        <v>95230.8824</v>
       </c>
       <c r="G254" t="n">
-        <v>28.96833333333334</v>
+        <v>28.97833333333334</v>
       </c>
       <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C255" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D255" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E255" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F255" t="n">
-        <v>1600</v>
+        <v>49164.8446</v>
       </c>
       <c r="G255" t="n">
-        <v>28.96</v>
+        <v>28.96833333333334</v>
       </c>
       <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7015,21 +7782,24 @@
         <v>28.7</v>
       </c>
       <c r="C256" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D256" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E256" t="n">
         <v>28.7</v>
       </c>
       <c r="F256" t="n">
-        <v>65891.7102</v>
+        <v>1600</v>
       </c>
       <c r="G256" t="n">
-        <v>28.955</v>
+        <v>28.96</v>
       </c>
       <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C257" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D257" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E257" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F257" t="n">
-        <v>29502.6206</v>
+        <v>65891.7102</v>
       </c>
       <c r="G257" t="n">
-        <v>28.95166666666667</v>
+        <v>28.955</v>
       </c>
       <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,7 +7837,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C258" t="n">
         <v>29</v>
@@ -7073,15 +7846,18 @@
         <v>29</v>
       </c>
       <c r="E258" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F258" t="n">
-        <v>27.7586</v>
+        <v>29502.6206</v>
       </c>
       <c r="G258" t="n">
-        <v>28.94666666666667</v>
+        <v>28.95166666666667</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7102,12 +7878,15 @@
         <v>29</v>
       </c>
       <c r="F259" t="n">
-        <v>8706.0731</v>
+        <v>27.7586</v>
       </c>
       <c r="G259" t="n">
-        <v>28.94166666666667</v>
+        <v>28.94666666666667</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7119,21 +7898,24 @@
         <v>29</v>
       </c>
       <c r="C260" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D260" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E260" t="n">
         <v>29</v>
       </c>
       <c r="F260" t="n">
-        <v>54047.213</v>
+        <v>8706.0731</v>
       </c>
       <c r="G260" t="n">
-        <v>28.94</v>
+        <v>28.94166666666667</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,7 +7924,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C261" t="n">
         <v>29.1</v>
@@ -7151,15 +7933,18 @@
         <v>29.1</v>
       </c>
       <c r="E261" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F261" t="n">
-        <v>45503</v>
+        <v>54047.213</v>
       </c>
       <c r="G261" t="n">
-        <v>28.93833333333333</v>
+        <v>28.94</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7180,12 +7965,15 @@
         <v>29.1</v>
       </c>
       <c r="F262" t="n">
-        <v>1000</v>
+        <v>45503</v>
       </c>
       <c r="G262" t="n">
-        <v>28.93666666666666</v>
+        <v>28.93833333333333</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,7 +7982,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C263" t="n">
         <v>29.1</v>
@@ -7203,15 +7991,18 @@
         <v>29.1</v>
       </c>
       <c r="E263" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F263" t="n">
-        <v>6281.0032</v>
+        <v>1000</v>
       </c>
       <c r="G263" t="n">
-        <v>28.93333333333333</v>
+        <v>28.93666666666666</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,7 +8011,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C264" t="n">
         <v>29.1</v>
@@ -7229,15 +8020,18 @@
         <v>29.1</v>
       </c>
       <c r="E264" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F264" t="n">
-        <v>36964.0812</v>
+        <v>6281.0032</v>
       </c>
       <c r="G264" t="n">
-        <v>28.93166666666666</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,12 +8052,15 @@
         <v>29.1</v>
       </c>
       <c r="F265" t="n">
-        <v>68213.4445</v>
+        <v>36964.0812</v>
       </c>
       <c r="G265" t="n">
         <v>28.93166666666666</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,12 +8081,15 @@
         <v>29.1</v>
       </c>
       <c r="F266" t="n">
-        <v>5939.4158</v>
+        <v>68213.4445</v>
       </c>
       <c r="G266" t="n">
-        <v>28.92999999999999</v>
+        <v>28.93166666666666</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7310,12 +8110,15 @@
         <v>29.1</v>
       </c>
       <c r="F267" t="n">
-        <v>40193.7943</v>
+        <v>5939.4158</v>
       </c>
       <c r="G267" t="n">
-        <v>28.92833333333332</v>
+        <v>28.92999999999999</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7336,12 +8139,15 @@
         <v>29.1</v>
       </c>
       <c r="F268" t="n">
-        <v>39379.2057</v>
+        <v>40193.7943</v>
       </c>
       <c r="G268" t="n">
         <v>28.92833333333332</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C269" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D269" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E269" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F269" t="n">
-        <v>1039.864</v>
+        <v>39379.2057</v>
       </c>
       <c r="G269" t="n">
-        <v>28.92999999999999</v>
+        <v>28.92833333333332</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C270" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D270" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E270" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F270" t="n">
-        <v>10620.7943</v>
+        <v>1039.864</v>
       </c>
       <c r="G270" t="n">
-        <v>28.92833333333332</v>
+        <v>28.92999999999999</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7405,21 +8217,24 @@
         <v>29.1</v>
       </c>
       <c r="C271" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D271" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E271" t="n">
         <v>29.1</v>
       </c>
       <c r="F271" t="n">
-        <v>60600</v>
+        <v>10620.7943</v>
       </c>
       <c r="G271" t="n">
-        <v>28.93166666666665</v>
+        <v>28.92833333333332</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,7 +8243,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C272" t="n">
         <v>29.2</v>
@@ -7437,15 +8252,18 @@
         <v>29.2</v>
       </c>
       <c r="E272" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F272" t="n">
-        <v>10</v>
+        <v>60600</v>
       </c>
       <c r="G272" t="n">
-        <v>28.93499999999999</v>
+        <v>28.93166666666665</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7466,12 +8284,15 @@
         <v>29.2</v>
       </c>
       <c r="F273" t="n">
-        <v>7200</v>
+        <v>10</v>
       </c>
       <c r="G273" t="n">
         <v>28.93499999999999</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C274" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D274" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E274" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F274" t="n">
-        <v>545.1522</v>
+        <v>7200</v>
       </c>
       <c r="G274" t="n">
         <v>28.93499999999999</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7518,12 +8342,15 @@
         <v>29.1</v>
       </c>
       <c r="F275" t="n">
-        <v>23627.3645</v>
+        <v>545.1522</v>
       </c>
       <c r="G275" t="n">
-        <v>28.93333333333332</v>
+        <v>28.93499999999999</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7544,12 +8371,15 @@
         <v>29.1</v>
       </c>
       <c r="F276" t="n">
-        <v>23827.4833</v>
+        <v>23627.3645</v>
       </c>
       <c r="G276" t="n">
-        <v>28.93499999999998</v>
+        <v>28.93333333333332</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7570,12 +8400,15 @@
         <v>29.1</v>
       </c>
       <c r="F277" t="n">
-        <v>3893.2366</v>
+        <v>23827.4833</v>
       </c>
       <c r="G277" t="n">
         <v>28.93499999999998</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C278" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D278" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E278" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F278" t="n">
-        <v>10</v>
+        <v>3893.2366</v>
       </c>
       <c r="G278" t="n">
-        <v>28.93666666666665</v>
+        <v>28.93499999999998</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,24 +8446,27 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C279" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D279" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E279" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F279" t="n">
-        <v>87402.6557</v>
+        <v>10</v>
       </c>
       <c r="G279" t="n">
-        <v>28.93499999999999</v>
+        <v>28.93666666666665</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7648,12 +8487,15 @@
         <v>29</v>
       </c>
       <c r="F280" t="n">
-        <v>7843.9254</v>
+        <v>87402.6557</v>
       </c>
       <c r="G280" t="n">
-        <v>28.93666666666665</v>
+        <v>28.93499999999999</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7674,12 +8516,15 @@
         <v>29</v>
       </c>
       <c r="F281" t="n">
-        <v>43450.5597</v>
+        <v>7843.9254</v>
       </c>
       <c r="G281" t="n">
         <v>28.93666666666665</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,12 +8545,15 @@
         <v>29</v>
       </c>
       <c r="F282" t="n">
-        <v>71936.40949999999</v>
+        <v>43450.5597</v>
       </c>
       <c r="G282" t="n">
         <v>28.93666666666665</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C283" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D283" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E283" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F283" t="n">
-        <v>91782.2801</v>
+        <v>71936.40949999999</v>
       </c>
       <c r="G283" t="n">
-        <v>28.94333333333332</v>
+        <v>28.93666666666665</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7740,24 +8591,27 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C284" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D284" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E284" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F284" t="n">
-        <v>1138.4827</v>
+        <v>91782.2801</v>
       </c>
       <c r="G284" t="n">
-        <v>28.94499999999999</v>
+        <v>28.94333333333332</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7769,21 +8623,24 @@
         <v>29</v>
       </c>
       <c r="C285" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D285" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E285" t="n">
         <v>29</v>
       </c>
       <c r="F285" t="n">
-        <v>9800</v>
+        <v>1138.4827</v>
       </c>
       <c r="G285" t="n">
-        <v>28.94999999999999</v>
+        <v>28.94499999999999</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7804,12 +8661,15 @@
         <v>29</v>
       </c>
       <c r="F286" t="n">
-        <v>20270</v>
+        <v>9800</v>
       </c>
       <c r="G286" t="n">
-        <v>28.95166666666665</v>
+        <v>28.94999999999999</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7818,24 +8678,27 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C287" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D287" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E287" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F287" t="n">
-        <v>1514.6047</v>
+        <v>20270</v>
       </c>
       <c r="G287" t="n">
-        <v>28.94833333333332</v>
+        <v>28.95166666666665</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7844,24 +8707,27 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C288" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D288" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E288" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F288" t="n">
-        <v>100</v>
+        <v>1514.6047</v>
       </c>
       <c r="G288" t="n">
-        <v>28.94666666666665</v>
+        <v>28.94833333333332</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7882,12 +8748,15 @@
         <v>29</v>
       </c>
       <c r="F289" t="n">
-        <v>178175</v>
+        <v>100</v>
       </c>
       <c r="G289" t="n">
         <v>28.94666666666665</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7896,24 +8765,27 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C290" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D290" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E290" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F290" t="n">
-        <v>100</v>
+        <v>178175</v>
       </c>
       <c r="G290" t="n">
-        <v>28.94833333333332</v>
+        <v>28.94666666666665</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7934,12 +8806,15 @@
         <v>29.1</v>
       </c>
       <c r="F291" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G291" t="n">
-        <v>28.94999999999999</v>
+        <v>28.94833333333332</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7960,12 +8835,15 @@
         <v>29.1</v>
       </c>
       <c r="F292" t="n">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="G292" t="n">
-        <v>28.95166666666665</v>
+        <v>28.94999999999999</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7977,21 +8855,24 @@
         <v>29.1</v>
       </c>
       <c r="C293" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D293" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E293" t="n">
         <v>29.1</v>
       </c>
       <c r="F293" t="n">
-        <v>7900</v>
+        <v>176</v>
       </c>
       <c r="G293" t="n">
-        <v>28.95333333333332</v>
+        <v>28.95166666666665</v>
       </c>
       <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8012,12 +8893,15 @@
         <v>29.1</v>
       </c>
       <c r="F294" t="n">
-        <v>28942.4752</v>
+        <v>7900</v>
       </c>
       <c r="G294" t="n">
-        <v>28.95499999999999</v>
+        <v>28.95333333333332</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8026,7 +8910,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C295" t="n">
         <v>29.2</v>
@@ -8035,15 +8919,18 @@
         <v>29.2</v>
       </c>
       <c r="E295" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F295" t="n">
-        <v>4927.2727</v>
+        <v>28942.4752</v>
       </c>
       <c r="G295" t="n">
-        <v>28.95833333333332</v>
+        <v>28.95499999999999</v>
       </c>
       <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8052,24 +8939,27 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C296" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D296" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E296" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F296" t="n">
-        <v>7641</v>
+        <v>4927.2727</v>
       </c>
       <c r="G296" t="n">
-        <v>28.95999999999999</v>
+        <v>28.95833333333332</v>
       </c>
       <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8078,24 +8968,27 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C297" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D297" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E297" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F297" t="n">
-        <v>56883</v>
+        <v>7641</v>
       </c>
       <c r="G297" t="n">
-        <v>28.96833333333332</v>
+        <v>28.95999999999999</v>
       </c>
       <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8116,12 +9009,15 @@
         <v>29.2</v>
       </c>
       <c r="F298" t="n">
-        <v>6343.7969</v>
+        <v>56883</v>
       </c>
       <c r="G298" t="n">
-        <v>28.96999999999999</v>
+        <v>28.96833333333332</v>
       </c>
       <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8142,12 +9038,15 @@
         <v>29.2</v>
       </c>
       <c r="F299" t="n">
-        <v>7119</v>
+        <v>6343.7969</v>
       </c>
       <c r="G299" t="n">
-        <v>28.97666666666666</v>
+        <v>28.96999999999999</v>
       </c>
       <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8156,24 +9055,27 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C300" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D300" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E300" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F300" t="n">
-        <v>7724.1855</v>
+        <v>7119</v>
       </c>
       <c r="G300" t="n">
-        <v>28.97999999999999</v>
+        <v>28.97666666666666</v>
       </c>
       <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8182,24 +9084,27 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C301" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D301" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E301" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F301" t="n">
-        <v>41508.1754</v>
+        <v>7724.1855</v>
       </c>
       <c r="G301" t="n">
-        <v>28.98833333333332</v>
+        <v>28.97999999999999</v>
       </c>
       <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8220,12 +9125,15 @@
         <v>29.2</v>
       </c>
       <c r="F302" t="n">
-        <v>113538.0908</v>
+        <v>41508.1754</v>
       </c>
       <c r="G302" t="n">
-        <v>28.99833333333332</v>
+        <v>28.98833333333332</v>
       </c>
       <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8234,24 +9142,27 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C303" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D303" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E303" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F303" t="n">
-        <v>100</v>
+        <v>113538.0908</v>
       </c>
       <c r="G303" t="n">
-        <v>29.00833333333332</v>
+        <v>28.99833333333332</v>
       </c>
       <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8272,12 +9183,15 @@
         <v>29.3</v>
       </c>
       <c r="F304" t="n">
-        <v>7505.8555</v>
+        <v>100</v>
       </c>
       <c r="G304" t="n">
-        <v>29.01833333333332</v>
+        <v>29.00833333333332</v>
       </c>
       <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8286,24 +9200,27 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C305" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D305" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E305" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F305" t="n">
-        <v>15147.0408</v>
+        <v>7505.8555</v>
       </c>
       <c r="G305" t="n">
-        <v>29.03166666666666</v>
+        <v>29.01833333333332</v>
       </c>
       <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8324,12 +9241,15 @@
         <v>29.4</v>
       </c>
       <c r="F306" t="n">
-        <v>27971.0544</v>
+        <v>15147.0408</v>
       </c>
       <c r="G306" t="n">
-        <v>29.04333333333333</v>
+        <v>29.03166666666666</v>
       </c>
       <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8350,12 +9270,15 @@
         <v>29.4</v>
       </c>
       <c r="F307" t="n">
-        <v>15795.5102</v>
+        <v>27971.0544</v>
       </c>
       <c r="G307" t="n">
-        <v>29.05499999999999</v>
+        <v>29.04333333333333</v>
       </c>
       <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8364,24 +9287,27 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C308" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D308" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E308" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F308" t="n">
-        <v>100</v>
+        <v>15795.5102</v>
       </c>
       <c r="G308" t="n">
-        <v>29.06833333333332</v>
+        <v>29.05499999999999</v>
       </c>
       <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8390,24 +9316,27 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C309" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D309" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E309" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F309" t="n">
-        <v>9100</v>
+        <v>100</v>
       </c>
       <c r="G309" t="n">
-        <v>29.07833333333333</v>
+        <v>29.06833333333332</v>
       </c>
       <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8416,24 +9345,27 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C310" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D310" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E310" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F310" t="n">
-        <v>100</v>
+        <v>9100</v>
       </c>
       <c r="G310" t="n">
-        <v>29.09166666666666</v>
+        <v>29.07833333333333</v>
       </c>
       <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8445,21 +9377,24 @@
         <v>29.3</v>
       </c>
       <c r="C311" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D311" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E311" t="n">
         <v>29.3</v>
       </c>
       <c r="F311" t="n">
-        <v>1929.2542</v>
+        <v>100</v>
       </c>
       <c r="G311" t="n">
-        <v>29.10333333333333</v>
+        <v>29.09166666666666</v>
       </c>
       <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8468,24 +9403,27 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C312" t="n">
         <v>29.4</v>
       </c>
-      <c r="C312" t="n">
-        <v>29.5</v>
-      </c>
       <c r="D312" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E312" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F312" t="n">
-        <v>38022.305</v>
+        <v>1929.2542</v>
       </c>
       <c r="G312" t="n">
-        <v>29.11666666666666</v>
+        <v>29.10333333333333</v>
       </c>
       <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8494,10 +9432,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C313" t="n">
         <v>29.5</v>
-      </c>
-      <c r="C313" t="n">
-        <v>29.4</v>
       </c>
       <c r="D313" t="n">
         <v>29.5</v>
@@ -8506,12 +9444,15 @@
         <v>29.4</v>
       </c>
       <c r="F313" t="n">
-        <v>49613.0882</v>
+        <v>38022.305</v>
       </c>
       <c r="G313" t="n">
-        <v>29.13</v>
+        <v>29.11666666666666</v>
       </c>
       <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8532,12 +9473,15 @@
         <v>29.4</v>
       </c>
       <c r="F314" t="n">
-        <v>1740.1512</v>
+        <v>49613.0882</v>
       </c>
       <c r="G314" t="n">
-        <v>29.14333333333333</v>
+        <v>29.13</v>
       </c>
       <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8546,10 +9490,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C315" t="n">
         <v>29.4</v>
-      </c>
-      <c r="C315" t="n">
-        <v>29.5</v>
       </c>
       <c r="D315" t="n">
         <v>29.5</v>
@@ -8558,12 +9502,15 @@
         <v>29.4</v>
       </c>
       <c r="F315" t="n">
-        <v>11013.4764</v>
+        <v>1740.1512</v>
       </c>
       <c r="G315" t="n">
-        <v>29.15666666666666</v>
+        <v>29.14333333333333</v>
       </c>
       <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8575,21 +9522,24 @@
         <v>29.4</v>
       </c>
       <c r="C316" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D316" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E316" t="n">
         <v>29.4</v>
       </c>
       <c r="F316" t="n">
-        <v>1918.3236</v>
+        <v>11013.4764</v>
       </c>
       <c r="G316" t="n">
-        <v>29.16666666666667</v>
+        <v>29.15666666666666</v>
       </c>
       <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8598,24 +9548,27 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C317" t="n">
         <v>29.4</v>
       </c>
       <c r="D317" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E317" t="n">
         <v>29.4</v>
       </c>
       <c r="F317" t="n">
-        <v>1521.2339</v>
+        <v>1918.3236</v>
       </c>
       <c r="G317" t="n">
-        <v>29.17333333333334</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8624,10 +9577,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C318" t="n">
         <v>29.4</v>
-      </c>
-      <c r="C318" t="n">
-        <v>29.5</v>
       </c>
       <c r="D318" t="n">
         <v>29.5</v>
@@ -8636,12 +9589,15 @@
         <v>29.4</v>
       </c>
       <c r="F318" t="n">
-        <v>10000</v>
+        <v>1521.2339</v>
       </c>
       <c r="G318" t="n">
-        <v>29.18166666666667</v>
+        <v>29.17333333333334</v>
       </c>
       <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8653,21 +9609,24 @@
         <v>29.4</v>
       </c>
       <c r="C319" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D319" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E319" t="n">
         <v>29.4</v>
       </c>
       <c r="F319" t="n">
-        <v>1466.7879</v>
+        <v>10000</v>
       </c>
       <c r="G319" t="n">
-        <v>29.18833333333334</v>
+        <v>29.18166666666667</v>
       </c>
       <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8679,21 +9638,24 @@
         <v>29.4</v>
       </c>
       <c r="C320" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D320" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E320" t="n">
         <v>29.4</v>
       </c>
       <c r="F320" t="n">
-        <v>7631.8821</v>
+        <v>1466.7879</v>
       </c>
       <c r="G320" t="n">
-        <v>29.195</v>
+        <v>29.18833333333334</v>
       </c>
       <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8702,24 +9664,27 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C321" t="n">
         <v>29.5</v>
       </c>
-      <c r="C321" t="n">
-        <v>29.6</v>
-      </c>
       <c r="D321" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E321" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F321" t="n">
-        <v>67996.6672</v>
+        <v>7631.8821</v>
       </c>
       <c r="G321" t="n">
-        <v>29.20333333333334</v>
+        <v>29.195</v>
       </c>
       <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8728,24 +9693,27 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C322" t="n">
         <v>29.6</v>
       </c>
-      <c r="C322" t="n">
-        <v>29.7</v>
-      </c>
       <c r="D322" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E322" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F322" t="n">
-        <v>156510.7615</v>
+        <v>67996.6672</v>
       </c>
       <c r="G322" t="n">
-        <v>29.21333333333334</v>
+        <v>29.20333333333334</v>
       </c>
       <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8754,24 +9722,27 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C323" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="D323" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E323" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F323" t="n">
-        <v>58470.8664</v>
+        <v>156510.7615</v>
       </c>
       <c r="G323" t="n">
-        <v>29.22500000000001</v>
+        <v>29.21333333333334</v>
       </c>
       <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8780,7 +9751,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C324" t="n">
         <v>29.8</v>
@@ -8789,15 +9760,18 @@
         <v>29.8</v>
       </c>
       <c r="E324" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F324" t="n">
-        <v>2971.14</v>
+        <v>58470.8664</v>
       </c>
       <c r="G324" t="n">
-        <v>29.23666666666668</v>
+        <v>29.22500000000001</v>
       </c>
       <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8806,24 +9780,27 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C325" t="n">
         <v>29.8</v>
       </c>
-      <c r="C325" t="n">
-        <v>29.9</v>
-      </c>
       <c r="D325" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E325" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F325" t="n">
-        <v>19010</v>
+        <v>2971.14</v>
       </c>
       <c r="G325" t="n">
-        <v>29.25000000000001</v>
+        <v>29.23666666666668</v>
       </c>
       <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8832,24 +9809,27 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C326" t="n">
         <v>29.9</v>
       </c>
-      <c r="C326" t="n">
-        <v>30.1</v>
-      </c>
       <c r="D326" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="E326" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F326" t="n">
-        <v>666854.6668</v>
+        <v>19010</v>
       </c>
       <c r="G326" t="n">
-        <v>29.26666666666668</v>
+        <v>29.25000000000001</v>
       </c>
       <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8858,24 +9838,27 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C327" t="n">
         <v>30.1</v>
       </c>
-      <c r="C327" t="n">
-        <v>30.3</v>
-      </c>
       <c r="D327" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="E327" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F327" t="n">
-        <v>166483.5701240924</v>
+        <v>666854.6668</v>
       </c>
       <c r="G327" t="n">
-        <v>29.28666666666668</v>
+        <v>29.26666666666668</v>
       </c>
       <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8884,25 +9867,28 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C328" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="D328" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="E328" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F328" t="n">
-        <v>7504.7116</v>
+        <v>166483.5701240924</v>
       </c>
       <c r="G328" t="n">
-        <v>29.30500000000001</v>
+        <v>29.28666666666668</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -8922,13 +9908,16 @@
         <v>30.2</v>
       </c>
       <c r="F329" t="n">
-        <v>12559.66</v>
+        <v>7504.7116</v>
       </c>
       <c r="G329" t="n">
-        <v>29.32500000000001</v>
+        <v>29.30500000000001</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -8936,24 +9925,27 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="C330" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="D330" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E330" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="F330" t="n">
-        <v>101794.7452</v>
+        <v>12559.66</v>
       </c>
       <c r="G330" t="n">
-        <v>29.34666666666669</v>
+        <v>29.32500000000001</v>
       </c>
       <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8962,24 +9954,27 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C331" t="n">
         <v>30.4</v>
       </c>
-      <c r="C331" t="n">
-        <v>30.7</v>
-      </c>
       <c r="D331" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E331" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="F331" t="n">
-        <v>160925.5961</v>
+        <v>101794.7452</v>
       </c>
       <c r="G331" t="n">
-        <v>29.37166666666668</v>
+        <v>29.34666666666669</v>
       </c>
       <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8988,24 +9983,27 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C332" t="n">
         <v>30.7</v>
       </c>
-      <c r="C332" t="n">
-        <v>30.6</v>
-      </c>
       <c r="D332" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="E332" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="F332" t="n">
-        <v>291855.982</v>
+        <v>160925.5961</v>
       </c>
       <c r="G332" t="n">
-        <v>29.39500000000002</v>
+        <v>29.37166666666668</v>
       </c>
       <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9017,21 +10015,24 @@
         <v>30.7</v>
       </c>
       <c r="C333" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="D333" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="E333" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="F333" t="n">
-        <v>78597.5478</v>
+        <v>291855.982</v>
       </c>
       <c r="G333" t="n">
-        <v>29.41500000000002</v>
+        <v>29.39500000000002</v>
       </c>
       <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9040,544 +10041,27 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C334" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D334" t="n">
         <v>30.7</v>
       </c>
       <c r="E334" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F334" t="n">
-        <v>73614.1836</v>
+        <v>78597.5478</v>
       </c>
       <c r="G334" t="n">
-        <v>29.43833333333335</v>
+        <v>29.41500000000002</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C335" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D335" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E335" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F335" t="n">
-        <v>80100</v>
-      </c>
-      <c r="G335" t="n">
-        <v>29.46166666666669</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C336" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D336" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E336" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F336" t="n">
-        <v>84114.73639999999</v>
-      </c>
-      <c r="G336" t="n">
-        <v>29.48333333333336</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C337" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D337" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E337" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F337" t="n">
-        <v>11765.8881</v>
-      </c>
-      <c r="G337" t="n">
-        <v>29.50333333333336</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C338" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D338" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E338" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F338" t="n">
-        <v>15551.8106</v>
-      </c>
-      <c r="G338" t="n">
-        <v>29.52166666666669</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C339" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D339" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E339" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F339" t="n">
-        <v>140.4043</v>
-      </c>
-      <c r="G339" t="n">
-        <v>29.54333333333335</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C340" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D340" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E340" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F340" t="n">
-        <v>7361.5852</v>
-      </c>
-      <c r="G340" t="n">
-        <v>29.56500000000002</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C341" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D341" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E341" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F341" t="n">
-        <v>24550.164</v>
-      </c>
-      <c r="G341" t="n">
-        <v>29.58500000000002</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C342" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D342" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E342" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F342" t="n">
-        <v>29799.0759</v>
-      </c>
-      <c r="G342" t="n">
-        <v>29.60500000000002</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C343" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D343" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E343" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F343" t="n">
-        <v>56853.43966655738</v>
-      </c>
-      <c r="G343" t="n">
-        <v>29.62666666666669</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C344" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D344" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E344" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F344" t="n">
-        <v>485.0657</v>
-      </c>
-      <c r="G344" t="n">
-        <v>29.65000000000002</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C345" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D345" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E345" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F345" t="n">
-        <v>23797.6973</v>
-      </c>
-      <c r="G345" t="n">
-        <v>29.67333333333336</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C346" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D346" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E346" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F346" t="n">
-        <v>2882.0327</v>
-      </c>
-      <c r="G346" t="n">
-        <v>29.69666666666669</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C347" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D347" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E347" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F347" t="n">
-        <v>36520.5244</v>
-      </c>
-      <c r="G347" t="n">
-        <v>29.72333333333336</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C348" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D348" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E348" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F348" t="n">
-        <v>21889.2165</v>
-      </c>
-      <c r="G348" t="n">
-        <v>29.74500000000002</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C349" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D349" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E349" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F349" t="n">
-        <v>8357.920700000001</v>
-      </c>
-      <c r="G349" t="n">
-        <v>29.76666666666669</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C350" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D350" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E350" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F350" t="n">
-        <v>22959.9634</v>
-      </c>
-      <c r="G350" t="n">
-        <v>29.78666666666669</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C351" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D351" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E351" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F351" t="n">
-        <v>25008.7445</v>
-      </c>
-      <c r="G351" t="n">
-        <v>29.80833333333336</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C352" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D352" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E352" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="F352" t="n">
-        <v>611.7478</v>
-      </c>
-      <c r="G352" t="n">
-        <v>29.82833333333336</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C353" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="D353" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="E353" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F353" t="n">
-        <v>15037.0724</v>
-      </c>
-      <c r="G353" t="n">
-        <v>29.84500000000003</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C354" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D354" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E354" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F354" t="n">
-        <v>100</v>
-      </c>
-      <c r="G354" t="n">
-        <v>29.86666666666669</v>
-      </c>
-      <c r="H354" t="n">
+      <c r="I334" t="n">
         <v>0</v>
       </c>
     </row>
